--- a/data_raw/Dictionnaire_final.xlsx
+++ b/data_raw/Dictionnaire_final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hecmtl-my.sharepoint.com/personal/aurelie_labbe_hec_ca/Documents/Documents/Cours_HEC/60611/Devoir/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a63eb842d7b26809/Documents/session hiver 2024/advanced stat/RoadSafetyPilotProject/data_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="10" documentId="8_{CBC59494-B27C-044D-A96D-1945253D9FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C76617C-D539-3B4B-9431-812273CC56E4}"/>
   <bookViews>
-    <workbookView xWindow="-33060" yWindow="2780" windowWidth="26880" windowHeight="15240" xr2:uid="{FC27DABD-5B5C-0443-85BA-617F49EB5D14}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FC27DABD-5B5C-0443-85BA-617F49EB5D14}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -446,7 +446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -461,13 +461,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,14 +478,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -530,7 +519,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -636,7 +625,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -778,7 +767,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -788,17 +777,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C43D0810-E943-7A4C-B93A-00C33991F0EE}">
   <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="203" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>96</v>
       </c>
@@ -806,7 +795,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -814,7 +803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -822,7 +811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -830,7 +819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -838,7 +827,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -846,7 +835,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -854,7 +843,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
@@ -862,7 +851,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
@@ -870,7 +859,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
@@ -878,7 +867,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>18</v>
       </c>
@@ -886,7 +875,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>20</v>
       </c>
@@ -894,7 +883,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>22</v>
       </c>
@@ -902,7 +891,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>23</v>
       </c>
@@ -910,7 +899,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
@@ -918,7 +907,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>25</v>
       </c>
@@ -926,7 +915,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>27</v>
       </c>
@@ -934,7 +923,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>29</v>
       </c>
@@ -942,15 +931,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>33</v>
       </c>
@@ -958,7 +947,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>35</v>
       </c>
@@ -966,7 +955,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>37</v>
       </c>
@@ -974,7 +963,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>39</v>
       </c>
@@ -982,7 +971,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>41</v>
       </c>
@@ -990,7 +979,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>43</v>
       </c>
@@ -998,7 +987,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>45</v>
       </c>
@@ -1006,7 +995,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>47</v>
       </c>
@@ -1014,7 +1003,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>49</v>
       </c>
@@ -1022,7 +1011,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>51</v>
       </c>
@@ -1030,7 +1019,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>53</v>
       </c>
@@ -1038,7 +1027,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>55</v>
       </c>
@@ -1046,7 +1035,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>57</v>
       </c>
@@ -1054,7 +1043,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>59</v>
       </c>
@@ -1062,7 +1051,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>60</v>
       </c>
@@ -1070,7 +1059,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>61</v>
       </c>
@@ -1078,7 +1067,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>62</v>
       </c>
@@ -1086,7 +1075,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>64</v>
       </c>
@@ -1094,7 +1083,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>66</v>
       </c>
@@ -1102,15 +1091,15 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>69</v>
       </c>
@@ -1118,7 +1107,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>70</v>
       </c>
@@ -1126,7 +1115,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>71</v>
       </c>
@@ -1134,7 +1123,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>72</v>
       </c>
@@ -1142,7 +1131,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>73</v>
       </c>
@@ -1150,7 +1139,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>74</v>
       </c>
@@ -1158,7 +1147,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>75</v>
       </c>
@@ -1166,7 +1155,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>76</v>
       </c>
@@ -1174,7 +1163,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
         <v>77</v>
       </c>
@@ -1182,7 +1171,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
         <v>78</v>
       </c>
@@ -1190,7 +1179,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>79</v>
       </c>
@@ -1198,7 +1187,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
         <v>80</v>
       </c>
@@ -1206,7 +1195,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
         <v>81</v>
       </c>
@@ -1214,7 +1203,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>83</v>
       </c>
@@ -1222,7 +1211,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>85</v>
       </c>
@@ -1230,7 +1219,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
         <v>86</v>
       </c>
@@ -1238,7 +1227,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
         <v>88</v>
       </c>
@@ -1246,7 +1235,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
         <v>89</v>
       </c>
@@ -1254,7 +1243,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
         <v>91</v>
       </c>
@@ -1262,7 +1251,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
         <v>93</v>
       </c>
@@ -1270,7 +1259,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
         <v>95</v>
       </c>
